--- a/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
+++ b/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
+++ b/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT01360242</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Patients Presenting With Acute STEMI Treated With Primary PCI : Comparison of the Impact of the MIMI Approach With a Conventional Strategy of Immediate Stenting</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>MIMI</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -556,36 +566,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT02735005</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Epidemiology of Aging of People With Disabilities - Gerontological Sector "Rumilly-Annecy-Saint-Julien-Pays de Gex-Bellegarde" : Description of the Population in an Attempt to Identify Ways to Implement to Meet the Needs in Aging</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>PHV</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -604,36 +619,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT04089397</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Randomized Open-label Trial Evaluating Light Therapy on Sleep Quality in Dialysis Patients</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>LUMIDIAL</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -652,36 +672,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT03493750</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Oral Evaluation by the Nurses From the Office of Access to Healthcare ("PASS") for Vulnerable People as a Vector for the Detection of Oral Diseases to Improve Access to the Appropriate Healthcare Branch - PASSDENT Study</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>PASSDENT</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -700,40 +725,45 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT05154383</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2021-004573-32</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Effect of High-Dose Quadrivalent Influenza Vaccine (Efluelda®) Versus Standard-Dose (QIV-SD), in Subjects 65 Years of Age and Older on Innate Immunity, Including Gene Expression</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>INFLUOMICS</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -750,40 +780,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2018-001105-85</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>A multicenter phase II study evaluating denosumab (XGEVA®) in combination with nivolumab (OPDIVO®) as second-line therapy for patients with stage IV non-small–cell lung cancer (squamous and non-squamous) with bone metastases 
  Etude de phase II multicentrique de l’évaluation du denosumab (XGEVA®) associé au nivolumab (OPDIVO®) en 2ème ligne de traitement chez des patients présentant un cancer bronchique non à petites cellules (épidermoïde et non épidermoïde) de stade IV, porteurs de métastases osseuses</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>DENIVOS 
  DENIVOS</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
+++ b/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>⬛</t>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📘</t>
   </si>
   <si>
     <t>orange</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>résultat et / ou publication posté dans les 36 mois</t>

--- a/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
+++ b/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
@@ -55,10 +55,10 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📘</t>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
+++ b/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
@@ -64,13 +64,13 @@
     <t>orange</t>
   </si>
   <si>
-    <t>bleu</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
   </si>
   <si>
     <t>NCT01360242</t>

--- a/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
+++ b/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,34 +40,19 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 36 mois</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>NCT01360242</t>
@@ -517,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,31 +533,19 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -586,31 +556,19 @@
       <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -621,31 +579,19 @@
       <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -656,31 +602,19 @@
       <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
@@ -689,35 +623,23 @@
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
@@ -727,32 +649,20 @@
         <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>25</v>
       </c>
       <c r="G7" t="s">
@@ -760,18 +670,6 @@
       </c>
       <c r="H7" t="s">
         <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
+++ b/publipostage2/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>statut</t>
   </si>
@@ -49,10 +49,10 @@
     <t>4</t>
   </si>
   <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>NCT01360242</t>
@@ -70,6 +70,18 @@
     <t>NCT05154383</t>
   </si>
   <si>
+    <t>NCT04846595</t>
+  </si>
+  <si>
+    <t>NCT03669523</t>
+  </si>
+  <si>
+    <t>NCT06455553</t>
+  </si>
+  <si>
+    <t>NCT05588414</t>
+  </si>
+  <si>
     <t>2021-004573-32</t>
   </si>
   <si>
@@ -94,6 +106,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>Patients Presenting With Acute STEMI Treated With Primary PCI : Comparison of the Impact of the MIMI Approach With a Conventional Strategy of Immediate Stenting</t>
   </si>
   <si>
@@ -109,8 +124,16 @@
     <t>Effect of High-Dose Quadrivalent Influenza Vaccine (Efluelda®) Versus Standard-Dose (QIV-SD), in Subjects 65 Years of Age and Older on Innate Immunity, Including Gene Expression</t>
   </si>
   <si>
-    <t>A multicenter phase II study evaluating denosumab (XGEVA®) in combination with nivolumab (OPDIVO®) as second-line therapy for patients with stage IV non-small–cell lung cancer (squamous and non-squamous) with bone metastases 
- Etude de phase II multicentrique de l’évaluation du denosumab (XGEVA®) associé au nivolumab (OPDIVO®) en 2ème ligne de traitement chez des patients présentant un cancer bronchique non à petites cellules (épidermoïde et non épidermoïde) de stade IV, porteurs de métastases osseuses</t>
+    <t>Aspects of Vulnerability of People Living with HIV in the Alpine Arc Region</t>
+  </si>
+  <si>
+    <t>A Multicenter Phase II Study Evaluating Denosumab (XGEVA®) in Combination with Nivolumab (OPDIVO®) As Second-line Therapy for Patients with Stage IV Non-small-cell Lung Cancer (squamous and Non-squamous) with Bone Metastases: DENIVOS STUDY</t>
+  </si>
+  <si>
+    <t>Interpretability of the Quantra® Viscoelastic Test in Patients with Haematological Malignancies with Profound Thrombocytopenia Below 50 G/L. First Exploratory Sub-study of the Global VISCOTHEM Project to Evaluate the Performance of VISCOelastic Tests in Predicting Bleeding in Thrombocytopenic Patients with Malignant Hemopathy.</t>
+  </si>
+  <si>
+    <t>Performance Assessment of the Fluorescence Technique Alone in the Search for the Sentinel Node in Breast Surgery, Compared to the Use of the Combined Fluorescence and Isotopic Method</t>
   </si>
   <si>
     <t>MIMI</t>
@@ -128,8 +151,16 @@
     <t>INFLUOMICS</t>
   </si>
   <si>
-    <t>DENIVOS 
- DENIVOS</t>
+    <t>ASPEGIC</t>
+  </si>
+  <si>
+    <t>DENIVOS</t>
+  </si>
+  <si>
+    <t>VISCOTHEM-1</t>
+  </si>
+  <si>
+    <t>FLUORES</t>
   </si>
   <si>
     <t>PROCEDURE</t>
@@ -142,6 +173,9 @@
   </si>
   <si>
     <t>BIOLOGICAL</t>
+  </si>
+  <si>
+    <t>DRUG</t>
   </si>
 </sst>
 </file>
@@ -499,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,16 +579,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -568,16 +602,16 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -591,16 +625,16 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -614,16 +648,16 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -637,19 +671,19 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -659,17 +693,92 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
         <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
